--- a/用紙管理/04_資材断裁/資材断裁入力フォーム設計図.xlsx
+++ b/用紙管理/04_資材断裁/資材断裁入力フォーム設計図.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\04_資材断裁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B5A21-DDFD-42A3-A1DD-65EB1231EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78184AC2-D018-4CE3-B6A4-5D0280A9AC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目仕様" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="64">
   <si>
     <t>###</t>
   </si>
@@ -106,9 +116,6 @@
     <t>消費枚数</t>
   </si>
   <si>
-    <t>断裁後サイズ</t>
-  </si>
-  <si>
     <t>断裁後枚数（定数）</t>
   </si>
   <si>
@@ -127,11 +134,123 @@
     <t>備考</t>
   </si>
   <si>
+    <t>_x001A_</t>
+  </si>
+  <si>
     <t>サイズID</t>
+  </si>
+  <si>
+    <t>サイズ名</t>
+  </si>
+  <si>
+    <t>断裁後サイズID</t>
+  </si>
+  <si>
+    <t>断裁サイズ名</t>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数値</t>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣言</t>
+    <rPh sb="0" eb="2">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var 日時  { &amp;OUT日付 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT担当者 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT伝票番号 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT得意先 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT品名 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUTサイズ }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT部数 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT用紙ID }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT銘柄 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUTサブ銘柄 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUTサイズID }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUTサイズ名 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT目 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT重さ }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT消費枚数 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT断裁後サイズID }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT断裁サイズ名 }</t>
+  </si>
+  <si>
+    <t>var 文字列  { &amp;OUT備考 }</t>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT断裁後枚数定数 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUT断裁後枚数予備 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;OUT断裁後枚数定数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;OUT断裁後枚数予備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数格納</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンスウカクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行追加</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -164,12 +283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,24 +296,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -475,20 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="2.625" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +626,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +657,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,146 +683,213 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>-1</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="U4" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>_xlfn.TEXTJOIN(,,"[",A4,"]")</f>
+        <v>[日付]</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>"&amp;OUT"&amp;A4</f>
+        <v>&amp;OUT日付</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>"var "&amp;B4&amp;"  { "&amp;Z4&amp;" }"</f>
+        <v>var 日時  { &amp;OUT日付 }</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>Z4&amp;" = """""</f>
+        <v>&amp;OUT日付 = ""</v>
+      </c>
+      <c r="AL4" t="str">
+        <f>Z4&amp;" = "&amp;Y4</f>
+        <v>&amp;OUT日付 = [日付]</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>Y4&amp;" = "&amp;Z4&amp;" , "</f>
+        <v xml:space="preserve">[日付] = &amp;OUT日付 , </v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="M5" s="3">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>-1</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="U5" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y24" si="0">_xlfn.TEXTJOIN(,,"[",A5,"]")</f>
+        <v>[担当者]</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" ref="Z5:Z24" si="1">"&amp;OUT"&amp;A5</f>
+        <v>&amp;OUT担当者</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" ref="AC5:AE24" si="2">"var "&amp;B5&amp;"  { "&amp;Z5&amp;" }"</f>
+        <v>var 文字列  { &amp;OUT担当者 }</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" ref="AI5:AI24" si="3">Z5&amp;" = """""</f>
+        <v>&amp;OUT担当者 = ""</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" ref="AL5:AL24" si="4">Z5&amp;" = "&amp;Y5</f>
+        <v>&amp;OUT担当者 = [担当者]</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" ref="AQ5:AQ24" si="5">Y5&amp;" = "&amp;Z5&amp;" , "</f>
+        <v xml:space="preserve">[担当者] = &amp;OUT担当者 , </v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -736,11 +914,14 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -748,38 +929,62 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>3</v>
+      <c r="N6" t="s">
+        <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
       </c>
       <c r="T6">
-        <v>11</v>
-      </c>
-      <c r="U6">
         <v>-1</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>10</v>
       </c>
-      <c r="W6">
-        <v>0</v>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v>[伝票番号]</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT伝票番号</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT伝票番号 }</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT伝票番号 = ""</v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT伝票番号 = [伝票番号]</v>
+      </c>
+      <c r="AQ6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[伝票番号] = &amp;OUT伝票番号 , </v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -804,11 +1009,14 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -816,38 +1024,62 @@
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="s">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
       </c>
       <c r="T7">
-        <v>11</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>13</v>
       </c>
-      <c r="W7">
-        <v>0</v>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
+        <v>[得意先]</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT得意先</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT得意先 }</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI7" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT得意先 = ""</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT得意先 = [得意先]</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[得意先] = &amp;OUT得意先 , </v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -872,11 +1104,14 @@
       <c r="H8" t="s">
         <v>7</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -884,38 +1119,62 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8">
-        <v>5</v>
+      <c r="N8" t="s">
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
       </c>
       <c r="T8">
-        <v>11</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>13</v>
       </c>
-      <c r="W8">
-        <v>0</v>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>[品名]</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT品名</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT品名 }</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT品名 = ""</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT品名 = [品名]</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[品名] = &amp;OUT品名 , </v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -940,11 +1199,14 @@
       <c r="H9" t="s">
         <v>7</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -952,38 +1214,62 @@
       <c r="M9">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>6</v>
+      <c r="N9" t="s">
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
       </c>
       <c r="T9">
-        <v>11</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>13</v>
       </c>
-      <c r="W9">
-        <v>0</v>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>[サイズ]</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUTサイズ</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUTサイズ }</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUTサイズ = ""</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUTサイズ = [サイズ]</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[サイズ] = &amp;OUTサイズ , </v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1008,11 +1294,14 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -1020,38 +1309,62 @@
       <c r="M10">
         <v>7</v>
       </c>
-      <c r="N10">
-        <v>7</v>
+      <c r="N10" t="s">
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
       </c>
       <c r="T10">
-        <v>11</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
+        <v>[部数]</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT部数</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT部数 }</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT部数 = ""</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT部数 = [部数]</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[部数] = &amp;OUT部数 , </v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1076,11 +1389,14 @@
       <c r="H11" t="s">
         <v>7</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -1088,38 +1404,62 @@
       <c r="M11">
         <v>8</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
-        <v>4</v>
-      </c>
       <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
       </c>
       <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
         <v>-1</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" t="s">
         <v>10</v>
       </c>
-      <c r="W11">
-        <v>0</v>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
+        <v>[用紙ID]</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT用紙ID</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT用紙ID }</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT用紙ID = ""</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT用紙ID = [用紙ID]</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[用紙ID] = &amp;OUT用紙ID , </v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1144,11 +1484,14 @@
       <c r="H12" t="s">
         <v>7</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -1156,38 +1499,62 @@
       <c r="M12">
         <v>9</v>
       </c>
-      <c r="N12">
-        <v>9</v>
+      <c r="N12" t="s">
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
       </c>
       <c r="T12">
-        <v>15</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>13</v>
       </c>
-      <c r="W12">
-        <v>0</v>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>[銘柄]</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT銘柄</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT銘柄 }</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT銘柄 = ""</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT銘柄 = [銘柄]</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[銘柄] = &amp;OUT銘柄 , </v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:43">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1212,11 +1579,14 @@
       <c r="H13" t="s">
         <v>7</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1224,43 +1594,67 @@
       <c r="M13">
         <v>10</v>
       </c>
-      <c r="N13">
-        <v>10</v>
+      <c r="N13" t="s">
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>15</v>
       </c>
       <c r="T13">
-        <v>15</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
         <v>13</v>
       </c>
-      <c r="W13">
-        <v>0</v>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
+        <v>[サブ銘柄]</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUTサブ銘柄</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUTサブ銘柄 }</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUTサブ銘柄 = ""</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUTサブ銘柄 = [サブ銘柄]</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[サブ銘柄] = &amp;OUTサブ銘柄 , </v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:43">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1280,11 +1674,14 @@
       <c r="H14" t="s">
         <v>7</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1292,40 +1689,64 @@
       <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14">
-        <v>11</v>
+      <c r="N14" t="s">
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>15</v>
       </c>
       <c r="T14">
-        <v>15</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
+        <v>[サイズID]</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUTサイズID</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUTサイズID }</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUTサイズID = ""</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUTサイズID = [サイズID]</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[サイズID] = &amp;OUTサイズID , </v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1348,11 +1769,14 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -1360,40 +1784,64 @@
       <c r="M15">
         <v>12</v>
       </c>
-      <c r="N15">
-        <v>12</v>
+      <c r="N15" t="s">
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
       </c>
       <c r="T15">
-        <v>15</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
         <v>13</v>
       </c>
-      <c r="W15">
-        <v>0</v>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v>[サイズ名]</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUTサイズ名</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUTサイズ名 }</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUTサイズ名 = ""</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUTサイズ名 = [サイズ名]</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[サイズ名] = &amp;OUTサイズ名 , </v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1416,11 +1864,14 @@
       <c r="H16" t="s">
         <v>7</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <v>13</v>
@@ -1428,43 +1879,67 @@
       <c r="M16">
         <v>13</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>13</v>
       </c>
-      <c r="O16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
+        <v>[目]</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT目</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT目 }</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT目 = ""</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT目 = [目]</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[目] = &amp;OUT目 , </v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1484,11 +1959,14 @@
       <c r="H17" t="s">
         <v>7</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>14</v>
@@ -1496,40 +1974,64 @@
       <c r="M17">
         <v>14</v>
       </c>
-      <c r="N17">
-        <v>14</v>
+      <c r="N17" t="s">
+        <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
       </c>
       <c r="T17">
-        <v>14</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>13</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>[重さ]</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT重さ</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT重さ }</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT重さ = ""</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT重さ = [重さ]</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[重さ] = &amp;OUT重さ , </v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1552,11 +2054,14 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>15</v>
@@ -1564,40 +2069,64 @@
       <c r="M18">
         <v>15</v>
       </c>
-      <c r="N18">
-        <v>15</v>
+      <c r="N18" t="s">
+        <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>14</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="U18" t="s">
         <v>13</v>
       </c>
-      <c r="W18">
-        <v>0</v>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>[消費枚数]</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT消費枚数</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT消費枚数 }</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT消費枚数 = ""</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT消費枚数 = [消費枚数]</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[消費枚数] = &amp;OUT消費枚数 , </v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1620,11 +2149,14 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L19">
         <v>16</v>
@@ -1632,43 +2164,67 @@
       <c r="M19">
         <v>16</v>
       </c>
-      <c r="N19">
-        <v>16</v>
+      <c r="N19" t="s">
+        <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
         <v>-1</v>
       </c>
-      <c r="V19" t="s">
+      <c r="U19" t="s">
         <v>10</v>
       </c>
-      <c r="W19">
-        <v>0</v>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>[断裁後サイズID]</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT断裁後サイズID</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT断裁後サイズID }</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT断裁後サイズID = ""</v>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT断裁後サイズID = [断裁後サイズID]</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[断裁後サイズID] = &amp;OUT断裁後サイズID , </v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1688,11 +2244,14 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>17</v>
@@ -1700,40 +2259,64 @@
       <c r="M20">
         <v>17</v>
       </c>
-      <c r="N20">
-        <v>17</v>
+      <c r="N20" t="s">
+        <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
         <v>-1</v>
       </c>
-      <c r="V20" t="s">
-        <v>10</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
+      <c r="U20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>[断裁サイズ名]</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT断裁サイズ名</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT断裁サイズ名 }</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT断裁サイズ名 = ""</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT断裁サイズ名 = [断裁サイズ名]</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[断裁サイズ名] = &amp;OUT断裁サイズ名 , </v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1742,10 +2325,10 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -1754,16 +2337,16 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>18</v>
@@ -1771,40 +2354,66 @@
       <c r="M21">
         <v>18</v>
       </c>
-      <c r="N21">
-        <v>18</v>
+      <c r="N21" t="s">
+        <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
         <v>-1</v>
       </c>
-      <c r="V21" t="s">
+      <c r="U21" t="s">
         <v>10</v>
       </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>[断裁後枚数（定数）]</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT断裁後枚数定数 }</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT断裁後枚数定数 = ""</v>
+      </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT断裁後枚数定数 = [断裁後枚数（定数）]</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[断裁後枚数（定数）] = &amp;OUT断裁後枚数定数 , </v>
+      </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1824,11 +2433,14 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -1836,39 +2448,242 @@
       <c r="M22">
         <v>19</v>
       </c>
-      <c r="N22">
-        <v>19</v>
+      <c r="N22" t="s">
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
+        <v>[断裁後枚数（予備）]</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  { &amp;OUT断裁後枚数予備 }</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI22" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT断裁後枚数予備 = ""</v>
+      </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT断裁後枚数予備 = [断裁後枚数（予備）]</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[断裁後枚数（予備）] = &amp;OUT断裁後枚数予備 , </v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>-1</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
+        <v>[断裁後枚数（合算）]</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="2"/>
+        <v>var 数値  {  }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+      <c r="U24" t="s">
         <v>13</v>
       </c>
-      <c r="W22">
-        <v>0</v>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
+        <v>[備考]</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;OUT備考</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="2"/>
+        <v>var 文字列  { &amp;OUT備考 }</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI24" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;OUT備考 = ""</v>
+      </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="4"/>
+        <v>&amp;OUT備考 = [備考]</v>
+      </c>
+      <c r="AQ24" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">[備考] = &amp;OUT備考 , </v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用紙管理/04_資材断裁/資材断裁入力フォーム設計図.xlsx
+++ b/用紙管理/04_資材断裁/資材断裁入力フォーム設計図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\04_資材断裁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78184AC2-D018-4CE3-B6A4-5D0280A9AC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B248FD8-EAC0-44B5-B601-3A21116F40AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="66">
   <si>
     <t>###</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>_x001A_</t>
   </si>
   <si>
     <t>サイズID</t>
@@ -250,6 +247,21 @@
     <t>行追加</t>
     <rPh sb="0" eb="3">
       <t>ギョウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var 数値  { &amp;OUTミス }</t>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -586,7 +598,7 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -684,19 +696,19 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
       <c r="AL3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>62</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -779,7 +791,7 @@
         <v>var 日時  { &amp;OUT日付 }</v>
       </c>
       <c r="AE4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="str">
         <f>Z4&amp;" = """""</f>
@@ -870,11 +882,11 @@
         <v>&amp;OUT担当者</v>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" ref="AC5:AE24" si="2">"var "&amp;B5&amp;"  { "&amp;Z5&amp;" }"</f>
+        <f t="shared" ref="AC5:AC24" si="2">"var "&amp;B5&amp;"  { "&amp;Z5&amp;" }"</f>
         <v>var 文字列  { &amp;OUT担当者 }</v>
       </c>
       <c r="AE5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" ref="AI5:AI24" si="3">Z5&amp;" = """""</f>
@@ -969,7 +981,7 @@
         <v>var 数値  { &amp;OUT伝票番号 }</v>
       </c>
       <c r="AE6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="3"/>
@@ -1064,7 +1076,7 @@
         <v>var 文字列  { &amp;OUT得意先 }</v>
       </c>
       <c r="AE7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="3"/>
@@ -1159,7 +1171,7 @@
         <v>var 文字列  { &amp;OUT品名 }</v>
       </c>
       <c r="AE8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="3"/>
@@ -1254,7 +1266,7 @@
         <v>var 文字列  { &amp;OUTサイズ }</v>
       </c>
       <c r="AE9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="3"/>
@@ -1349,7 +1361,7 @@
         <v>var 数値  { &amp;OUT部数 }</v>
       </c>
       <c r="AE10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="str">
         <f t="shared" si="3"/>
@@ -1444,7 +1456,7 @@
         <v>var 数値  { &amp;OUT用紙ID }</v>
       </c>
       <c r="AE11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="str">
         <f t="shared" si="3"/>
@@ -1539,7 +1551,7 @@
         <v>var 文字列  { &amp;OUT銘柄 }</v>
       </c>
       <c r="AE12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="str">
         <f t="shared" si="3"/>
@@ -1634,7 +1646,7 @@
         <v>var 文字列  { &amp;OUTサブ銘柄 }</v>
       </c>
       <c r="AE13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="str">
         <f t="shared" si="3"/>
@@ -1651,7 +1663,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1729,7 +1741,7 @@
         <v>var 数値  { &amp;OUTサイズID }</v>
       </c>
       <c r="AE14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="str">
         <f t="shared" si="3"/>
@@ -1746,7 +1758,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1824,7 +1836,7 @@
         <v>var 文字列  { &amp;OUTサイズ名 }</v>
       </c>
       <c r="AE15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="str">
         <f t="shared" si="3"/>
@@ -1919,7 +1931,7 @@
         <v>var 文字列  { &amp;OUT目 }</v>
       </c>
       <c r="AE16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="str">
         <f t="shared" si="3"/>
@@ -2014,7 +2026,7 @@
         <v>var 数値  { &amp;OUT重さ }</v>
       </c>
       <c r="AE17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="str">
         <f t="shared" si="3"/>
@@ -2109,7 +2121,7 @@
         <v>var 文字列  { &amp;OUT消費枚数 }</v>
       </c>
       <c r="AE18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI18" t="str">
         <f t="shared" si="3"/>
@@ -2126,7 +2138,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2204,7 +2216,7 @@
         <v>var 数値  { &amp;OUT断裁後サイズID }</v>
       </c>
       <c r="AE19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="3"/>
@@ -2221,7 +2233,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -2299,7 +2311,7 @@
         <v>var 文字列  { &amp;OUT断裁サイズ名 }</v>
       </c>
       <c r="AE20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI20" t="str">
         <f t="shared" si="3"/>
@@ -2386,14 +2398,14 @@
         <v>[断裁後枚数（定数）]</v>
       </c>
       <c r="Z21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="2"/>
         <v>var 数値  { &amp;OUT断裁後枚数定数 }</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="3"/>
@@ -2480,14 +2492,14 @@
         <v>[断裁後枚数（予備）]</v>
       </c>
       <c r="Z22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="2"/>
         <v>var 数値  { &amp;OUT断裁後枚数予備 }</v>
       </c>
       <c r="AE22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI22" t="str">
         <f t="shared" si="3"/>
@@ -2661,7 +2673,7 @@
         <v>var 文字列  { &amp;OUT備考 }</v>
       </c>
       <c r="AE24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="3"/>
@@ -2678,7 +2690,37 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" ref="Y25" si="6">_xlfn.TEXTJOIN(,,"[",A25,"]")</f>
+        <v>[ミス]</v>
+      </c>
+      <c r="Z25" t="str">
+        <f>"&amp;OUT"&amp;A25</f>
+        <v>&amp;OUTミス</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" ref="AC25" si="7">"var "&amp;B25&amp;"  { "&amp;Z25&amp;" }"</f>
+        <v>var 数値  { &amp;OUTミス }</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" t="str">
+        <f t="shared" ref="AI25" si="8">Z25&amp;" = """""</f>
+        <v>&amp;OUTミス = ""</v>
+      </c>
+      <c r="AL25" t="str">
+        <f t="shared" ref="AL25" si="9">Z25&amp;" = "&amp;Y25</f>
+        <v>&amp;OUTミス = [ミス]</v>
+      </c>
+      <c r="AQ25" t="str">
+        <f t="shared" ref="AQ25" si="10">Y25&amp;" = "&amp;Z25&amp;" , "</f>
+        <v xml:space="preserve">[ミス] = &amp;OUTミス , </v>
       </c>
     </row>
   </sheetData>
